--- a/documentation/Capstone Proposal.xlsx
+++ b/documentation/Capstone Proposal.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE9A0FE-7A36-BD49-9C26-A93A3843F192}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
     <sheet name="DataBase" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -50,24 +51,6 @@
     <t>Project repository</t>
   </si>
   <si>
-    <t>Humber College Security Services. Humber College School of Applied Technology</t>
-  </si>
-  <si>
-    <t>B. A. Alabdulsalam, F. A. Alsalman, Z. H. Alshakhs, H. F. Ahmad and A. Mughal, "Dynamic Video Wall Tile Creation Using Raspberry Pi3," 2017 IEEE 13th International Symposium on Autonomous Decentralized System (ISADS), Bangkok, 2017, pp. 268-271.
-doi: 10.1109/ISADS.2017.45
-keywords: {LED displays;liquid crystal displays;screens (display);source code (software);dynamic video wall tile creation;Raspberry Pi3;PiWall system;source code;LCD monitors;LED monitors;Computers;Linux;Graphics processing units;Monitoring;Portals;Streaming media;Multimedia communication;piwall;video wall;raspberry pi;tiles},
-URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=7940251&amp;isnumber=7931239</t>
-  </si>
-  <si>
-    <t>2.4" Digole LCD with Touchscreen Capabilities, Raspberry Pi 3B+, PN532 NFC/RFID Reader</t>
-  </si>
-  <si>
-    <t>Neets Touch Panel (Last Updated: Aug . 14th, 2018) Retrieved From: https://www.neets.dk/product/neets-touch-panel-neets-touch-panel-7b</t>
-  </si>
-  <si>
-    <t>Our solution will implement an LCD touch screen at room entrances to display schedules, and information about current occupants. It will also utilize NFC/RFID readers to allow access to restricted labs through the use of epmployee/student wrist bands implementing NFC/RFID chips.</t>
-  </si>
-  <si>
     <t>Roomi</t>
   </si>
   <si>
@@ -80,9 +63,6 @@
     <t>2.4" Serial: UART/I2C/SPI 400x240 TFT with Touchscreen Module DS400240CTFT-61T,  ISL29125 Colour Sensor (0x44), PN532 NFC/RFID reader</t>
   </si>
   <si>
-    <t>Rooom accessibility and properties management</t>
-  </si>
-  <si>
     <t>Access Level, Room Properties (name/id, schedule), User Accounts, Colour Settings</t>
   </si>
   <si>
@@ -95,16 +75,35 @@
     <t>We will be collaborating with the following company/department</t>
   </si>
   <si>
-    <t>Roomi should allow easier access to information with respect to labs and classrooms. Information will include; Access level, room id, room name, and schedule. All the information will be accessable over cloud based technologies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Digole LCD will be used to display room properties. The PN532 NFC/RFID reader will permit indaviduals access to configured rooms, based on a predefined access level setup through the android application. </t>
+    <t>Humber College Department of Public Safety. Humber College School of Applied Technology</t>
+  </si>
+  <si>
+    <t>Room accessibility and properties management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today, many rooms being electronically secured lack the flexibility of information display and mobile user management. The problem herein lies with the decrease in usabiltiy, and the sole focus of Roomi is to remedy this. Through the tying together of an LCD screen and existing RFID technology, users will be able to view additional important information about secured rooms, as well as allow administration to update this information easily and without the need for support from IT. </t>
+  </si>
+  <si>
+    <t>The 2.4" Digole LCD Display will be used to display relevant information unique to every room. The PN532 NFC/RFID reader will allow individuals access to configured rooms, based on a predefined access level setup through the android application. The mini push-pull solenoid will be used to demonstrate how the locking mechanism will function. The mobile application will allow the administration to modify user and room access and display settings in a user-friendly environment. The hardware and application will work in unison with a cloud service hosted on Google's Firebase platform to store room's relevant information.</t>
+  </si>
+  <si>
+    <t>2.4" Digole LCD with Touchscreen Capabilities, Raspberry Pi 3B+, PN532 NFC/RFID Reader, Mini Push-Pull Solenoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. A. Alabdulsalam, F. A. Alsalman, Z. H. Alshakhs, H. F. Ahmad and A. Mughal, "Dynamic Video Wall Tile Creation Using Raspberry Pi3," 2017 IEEE 13th International Symposium on Autonomous Decentralized System (ISADS), Bangkok, 2017, pp. 268-271.
+URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=7940251&amp;isnumber=7931239                               K. Michael, "Novel NFC Applications to Enrich Our Connections: The NFC Forum Innovation Awards.," in IEEE Consumer Electronics Magazine, vol. 6, no. 3, pp. 118-121, July 2017.           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neets Touch Panel (Last Updated: Aug . 14th, 2018) Retrieved From: https://www.neets.dk/product/neets-touch-panel-neets-touch-panel-7b                                                           Photo ID Systems. (n.d.). Retrieved September 11, 2018, from https://www.idcardgroup.com/systems                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our solution will implement an LCD touch screen at room entrances to display schedules, and information about current occupants. It will also utilize NFC/RFID readers to allow access to secured rooms through the use of keycards implementing NFC/RFID chips. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,6 +263,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -299,6 +315,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,21 +507,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="69.85546875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="19.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="56.83203125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -496,47 +530,47 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
@@ -544,65 +578,65 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -611,19 +645,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>DataEntry!A1</f>
         <v>Submission Date</v>
@@ -685,7 +719,7 @@
         <v>Solution description</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>DataEntry!B1</f>
         <v>43482</v>
@@ -712,11 +746,11 @@
       </c>
       <c r="G2" s="1" t="str">
         <f>DataEntry!B7</f>
-        <v>Rooom accessibility and properties management</v>
+        <v>Room accessibility and properties management</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>DataEntry!B8</f>
-        <v>Humber College Security Services. Humber College School of Applied Technology</v>
+        <v>Humber College Department of Public Safety. Humber College School of Applied Technology</v>
       </c>
       <c r="I2" s="1" t="e">
         <f>DataEntry!#REF!</f>
@@ -724,30 +758,28 @@
       </c>
       <c r="J2" s="1" t="str">
         <f>DataEntry!B9</f>
-        <v>Roomi should allow easier access to information with respect to labs and classrooms. Information will include; Access level, room id, room name, and schedule. All the information will be accessable over cloud based technologies.</v>
+        <v xml:space="preserve">Today, many rooms being electronically secured lack the flexibility of information display and mobile user management. The problem herein lies with the decrease in usabiltiy, and the sole focus of Roomi is to remedy this. Through the tying together of an LCD screen and existing RFID technology, users will be able to view additional important information about secured rooms, as well as allow administration to update this information easily and without the need for support from IT. </v>
       </c>
       <c r="K2" s="1" t="str">
         <f>DataEntry!B10</f>
-        <v xml:space="preserve">The Digole LCD will be used to display room properties. The PN532 NFC/RFID reader will permit indaviduals access to configured rooms, based on a predefined access level setup through the android application. </v>
+        <v>The 2.4" Digole LCD Display will be used to display relevant information unique to every room. The PN532 NFC/RFID reader will allow individuals access to configured rooms, based on a predefined access level setup through the android application. The mini push-pull solenoid will be used to demonstrate how the locking mechanism will function. The mobile application will allow the administration to modify user and room access and display settings in a user-friendly environment. The hardware and application will work in unison with a cloud service hosted on Google's Firebase platform to store room's relevant information.</v>
       </c>
       <c r="L2" s="1" t="str">
         <f>DataEntry!B11</f>
-        <v>Neets Touch Panel (Last Updated: Aug . 14th, 2018) Retrieved From: https://www.neets.dk/product/neets-touch-panel-neets-touch-panel-7b</v>
+        <v xml:space="preserve">Neets Touch Panel (Last Updated: Aug . 14th, 2018) Retrieved From: https://www.neets.dk/product/neets-touch-panel-neets-touch-panel-7b                                                           Photo ID Systems. (n.d.). Retrieved September 11, 2018, from https://www.idcardgroup.com/systems                                                      </v>
       </c>
       <c r="M2" s="1" t="str">
         <f>DataEntry!B12</f>
-        <v>B. A. Alabdulsalam, F. A. Alsalman, Z. H. Alshakhs, H. F. Ahmad and A. Mughal, "Dynamic Video Wall Tile Creation Using Raspberry Pi3," 2017 IEEE 13th International Symposium on Autonomous Decentralized System (ISADS), Bangkok, 2017, pp. 268-271.
-doi: 10.1109/ISADS.2017.45
-keywords: {LED displays;liquid crystal displays;screens (display);source code (software);dynamic video wall tile creation;Raspberry Pi3;PiWall system;source code;LCD monitors;LED monitors;Computers;Linux;Graphics processing units;Monitoring;Portals;Streaming media;Multimedia communication;piwall;video wall;raspberry pi;tiles},
-URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=7940251&amp;isnumber=7931239</v>
+        <v xml:space="preserve">B. A. Alabdulsalam, F. A. Alsalman, Z. H. Alshakhs, H. F. Ahmad and A. Mughal, "Dynamic Video Wall Tile Creation Using Raspberry Pi3," 2017 IEEE 13th International Symposium on Autonomous Decentralized System (ISADS), Bangkok, 2017, pp. 268-271.
+URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=7940251&amp;isnumber=7931239                               K. Michael, "Novel NFC Applications to Enrich Our Connections: The NFC Forum Innovation Awards.," in IEEE Consumer Electronics Magazine, vol. 6, no. 3, pp. 118-121, July 2017.           </v>
       </c>
       <c r="N2" s="1" t="str">
         <f>DataEntry!B13</f>
-        <v>2.4" Digole LCD with Touchscreen Capabilities, Raspberry Pi 3B+, PN532 NFC/RFID Reader</v>
+        <v>2.4" Digole LCD with Touchscreen Capabilities, Raspberry Pi 3B+, PN532 NFC/RFID Reader, Mini Push-Pull Solenoid</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>DataEntry!B14</f>
-        <v>Our solution will implement an LCD touch screen at room entrances to display schedules, and information about current occupants. It will also utilize NFC/RFID readers to allow access to restricted labs through the use of epmployee/student wrist bands implementing NFC/RFID chips.</v>
+        <v xml:space="preserve">Our solution will implement an LCD touch screen at room entrances to display schedules, and information about current occupants. It will also utilize NFC/RFID readers to allow access to secured rooms through the use of keycards implementing NFC/RFID chips. </v>
       </c>
     </row>
   </sheetData>
